--- a/biology/Zoologie/Emílio_Augusto_Goeldi/Emílio_Augusto_Goeldi.xlsx
+++ b/biology/Zoologie/Emílio_Augusto_Goeldi/Emílio_Augusto_Goeldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Em%C3%ADlio_Augusto_Goeldi</t>
+          <t>Emílio_Augusto_Goeldi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emílio Augusto Goeldi ou Gœldi, né Emil August Göldi le 28 août 1859 à Ennetbühl (canton de Saint-Gall) et mort le 5 juillet 1917 à Berne, est un médecin suisse ayant fait carrière au Brésil.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Em%C3%ADlio_Augusto_Goeldi</t>
+          <t>Emílio_Augusto_Goeldi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études à l’université de Naples - Frédéric-II  avant de compléter son doctorat en 1883 à l’université d'Iéna sous la direction du grand biologiste Ernst Haeckel.
 En 1884, Pierre II (empereur du Brésil) l’invite à prendre le poste d’assistant du directeur du département de zoologie du Museu Nacional de Rio de Janeiro. Mais l’empereur est dépossédé de son trône par l’armée en 1889 et Goeldi perd son poste l’année suivante.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Em%C3%ADlio_Augusto_Goeldi</t>
+          <t>Emílio_Augusto_Goeldi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces de plantes et d'animaux commémorent son nom : George Albert Boulenger lui a notamment dédié un amphibien, Fritziana goeldii, et Johann Ludwig Christ une fougère, Pteris goeldii.
 Le Museu Paraense a été rebaptisé Museu Paraense Emílio Goeldi.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Em%C3%ADlio_Augusto_Goeldi</t>
+          <t>Emílio_Augusto_Goeldi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.
 </t>
